--- a/doc/bug_report.xlsx
+++ b/doc/bug_report.xlsx
@@ -497,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -556,6 +556,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -1235,8 +1238,8 @@
       <c r="D10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>14</v>
+      <c r="E10" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>39</v>
@@ -1273,34 +1276,34 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="21">
+      <c r="A11" s="22">
         <v>8.0</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="23">
         <v>45354.0</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="26" t="s">
         <v>48</v>
       </c>
       <c r="K11" s="6"/>
@@ -1321,34 +1324,34 @@
       <c r="Z11" s="5"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="21">
+      <c r="A12" s="22">
         <v>9.0</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="23">
         <v>45354.0</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>14</v>
+      <c r="E12" s="22" t="s">
+        <v>22</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="27" t="s">
         <v>52</v>
       </c>
       <c r="K12" s="6"/>
@@ -1369,37 +1372,37 @@
       <c r="Z12" s="5"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="21">
+      <c r="A13" s="22">
         <v>10.0</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="23">
         <v>45353.0</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="28"/>
+      <c r="K13" s="29"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1417,37 +1420,37 @@
       <c r="Z13" s="5"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="21">
+      <c r="A14" s="22">
         <v>11.0</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="23">
         <v>45356.0</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>14</v>
+      <c r="E14" s="22" t="s">
+        <v>22</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="28"/>
+      <c r="K14" s="29"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -1465,34 +1468,34 @@
       <c r="Z14" s="5"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="21">
+      <c r="A15" s="22">
         <v>12.0</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="23">
         <v>45356.0</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>14</v>
+      <c r="E15" s="22" t="s">
+        <v>22</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="J15" s="30"/>
+      <c r="J15" s="31"/>
       <c r="K15" s="6"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -1511,37 +1514,37 @@
       <c r="Z15" s="5"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="21">
+      <c r="A16" s="22">
         <v>13.0</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="23">
         <v>45356.0</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="24" t="s">
+      <c r="K16" s="25" t="s">
         <v>69</v>
       </c>
       <c r="L16" s="5"/>
@@ -1561,37 +1564,37 @@
       <c r="Z16" s="5"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="31">
+      <c r="A17" s="32">
         <v>14.0</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="33">
         <v>45356.0</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="33" t="s">
-        <v>14</v>
+      <c r="E17" s="34" t="s">
+        <v>22</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="K17" s="35"/>
+      <c r="K17" s="36"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -1609,34 +1612,34 @@
       <c r="Z17" s="5"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="36">
+      <c r="A18" s="37">
         <v>15.0</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="33">
         <v>45377.0</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="37" t="s">
         <v>78</v>
       </c>
       <c r="L18" s="5"/>
@@ -1656,34 +1659,34 @@
       <c r="Z18" s="5"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="36">
+      <c r="A19" s="37">
         <v>16.0</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="33">
         <v>45377.0</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="37" t="s">
         <v>83</v>
       </c>
       <c r="L19" s="5"/>
@@ -1703,34 +1706,34 @@
       <c r="Z19" s="5"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="37">
+      <c r="A20" s="38">
         <v>17.0</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="33">
         <v>45377.0</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="36" t="s">
+      <c r="I20" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="37" t="s">
         <v>87</v>
       </c>
       <c r="L20" s="5"/>
@@ -1750,34 +1753,34 @@
       <c r="Z20" s="5"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="37">
+      <c r="A21" s="38">
         <v>18.0</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="33">
         <v>45377.0</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="I21" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="J21" s="36" t="s">
+      <c r="J21" s="37" t="s">
         <v>92</v>
       </c>
       <c r="L21" s="5"/>
@@ -1797,37 +1800,37 @@
       <c r="Z21" s="5"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="36">
+      <c r="A22" s="37">
         <v>19.0</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="33">
         <v>45377.0</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="36" t="s">
+      <c r="H22" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="36" t="s">
+      <c r="I22" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="J22" s="36" t="s">
+      <c r="J22" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="37" t="s">
         <v>97</v>
       </c>
       <c r="L22" s="5"/>
@@ -1847,37 +1850,37 @@
       <c r="Z22" s="5"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="21">
+      <c r="A23" s="22">
         <v>20.0</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="33">
         <v>45377.0</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="K23" s="24" t="s">
+      <c r="K23" s="25" t="s">
         <v>101</v>
       </c>
       <c r="L23" s="5"/>
@@ -1897,34 +1900,34 @@
       <c r="Z23" s="5"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="21">
+      <c r="A24" s="22">
         <v>21.0</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="33">
         <v>45377.0</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="J24" s="25" t="s">
+      <c r="J24" s="26" t="s">
         <v>104</v>
       </c>
       <c r="K24" s="6"/>
@@ -1945,34 +1948,34 @@
       <c r="Z24" s="5"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="21">
+      <c r="A25" s="22">
         <v>22.0</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="23">
         <v>45378.0</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="26" t="s">
         <v>108</v>
       </c>
       <c r="K25" s="6"/>
@@ -1993,37 +1996,37 @@
       <c r="Z25" s="5"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="21">
+      <c r="A26" s="22">
         <v>23.0</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="23">
         <v>45378.0</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="I26" s="38" t="s">
+      <c r="I26" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="K26" s="26" t="s">
+      <c r="K26" s="27" t="s">
         <v>112</v>
       </c>
       <c r="L26" s="5"/>
@@ -2043,7 +2046,7 @@
       <c r="Z26" s="5"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="39"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2071,8 +2074,8 @@
       <c r="Z27" s="5"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -2099,8 +2102,8 @@
       <c r="Z28" s="5"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -2127,8 +2130,8 @@
       <c r="Z29" s="5"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -2155,8 +2158,8 @@
       <c r="Z30" s="5"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="42"/>
-      <c r="B31" s="41"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -2183,8 +2186,8 @@
       <c r="Z31" s="5"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -29335,58 +29338,58 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="44" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="44" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="44" t="s">
         <v>122</v>
       </c>
     </row>

--- a/doc/bug_report.xlsx
+++ b/doc/bug_report.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="hKx5Y8joiPUbkE9N/Qtoj85p7xj43gvM4hQGaRJFD4Q="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="EVDzv6viK7ZEHvtSjtqqhyopNFG4t6/NgfA99Mgo4Zc="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="147">
   <si>
     <t>Bug List</t>
   </si>
@@ -61,7 +61,7 @@
     <t>P0</t>
   </si>
   <si>
-    <t>open</t>
+    <t>resolved</t>
   </si>
   <si>
     <t>Justin</t>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>P1</t>
-  </si>
-  <si>
-    <t>resolved</t>
   </si>
   <si>
     <t xml:space="preserve">Coding bug but C++ wasn't finding the declaration of. Ability in the character class.  </t>
@@ -359,6 +356,87 @@
     <t xml:space="preserve">for some reason, this also affects the positioning of the cup in the minigame. </t>
   </si>
   <si>
+    <t>Game crashes when another level is played</t>
+  </si>
+  <si>
+    <t>play another level after already playing one</t>
+  </si>
+  <si>
+    <t>When another level is played, duplicate characters appear</t>
+  </si>
+  <si>
+    <t>should not have duplicate characters</t>
+  </si>
+  <si>
+    <t>characters are duplicated</t>
+  </si>
+  <si>
+    <t>When the player loses the game, the battle restarts instead of sending the player back to the overworld</t>
+  </si>
+  <si>
+    <t>should send player back to overworld</t>
+  </si>
+  <si>
+    <t>player is stuck in combat and has to replay battle</t>
+  </si>
+  <si>
+    <t>lose a battle</t>
+  </si>
+  <si>
+    <t>If character goes to the edges of the map, there are gaps bc the table texture is not long enough</t>
+  </si>
+  <si>
+    <t>texture should fill all of the bottom part of the screen</t>
+  </si>
+  <si>
+    <t>gap between edge and table texture</t>
+  </si>
+  <si>
+    <t>move to either edge of screen</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>When going into mini game, if a miss/level up text is on then it still renders</t>
+  </si>
+  <si>
+    <t>should not render miss/level up text in minigame</t>
+  </si>
+  <si>
+    <t>levelup/miss text rendering in minigame</t>
+  </si>
+  <si>
+    <t>miss or level up and go straight into a minigame</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Overworld player moves in straight line instead of curves</t>
+  </si>
+  <si>
+    <t>Player should move in curve</t>
+  </si>
+  <si>
+    <t>Player moves in straight line</t>
+  </si>
+  <si>
+    <t>start game, step once into cutscene, skip cutscene, go back to overworld</t>
+  </si>
+  <si>
+    <t>When the player loses the final battle, they still see the ending cutscene</t>
+  </si>
+  <si>
+    <t>should be taken back to the overworld on battle loss</t>
+  </si>
+  <si>
+    <t>Lose in the level 5 battle</t>
+  </si>
+  <si>
     <t>Severity</t>
   </si>
   <si>
@@ -377,13 +455,7 @@
     <t>annoying, could ship but loss of marks</t>
   </si>
   <si>
-    <t>P4</t>
-  </si>
-  <si>
     <t>annoying or limiting, but could be shipped as-is</t>
-  </si>
-  <si>
-    <t>P5</t>
   </si>
   <si>
     <t>minor or feature that nice to have but could ship in future release</t>
@@ -393,10 +465,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -422,6 +495,7 @@
     <font>
       <color theme="1"/>
       <name val="Aptos narrow"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -448,21 +522,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;aptos narrow&quot;"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Aptos narrow"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -497,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -506,7 +565,7 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,9 +582,6 @@
     <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -538,11 +594,38 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
@@ -551,14 +634,42 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -566,11 +677,8 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -579,54 +687,24 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -921,7 +999,7 @@
       <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="7" t="s">
@@ -930,45 +1008,45 @@
       <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>1.0</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>45335.0</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="16" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="16" t="s">
@@ -998,10 +1076,10 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="11">
+      <c r="A5" s="18">
         <v>2.0</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>45333.0</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -1010,20 +1088,20 @@
       <c r="D5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20" t="s">
         <v>23</v>
-      </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="18" t="s">
-        <v>24</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -1042,32 +1120,32 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="11">
+      <c r="A6" s="18">
         <v>3.0</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>45334.0</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="16" t="s">
         <v>24</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -1086,32 +1164,32 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="11">
+      <c r="A7" s="18">
         <v>4.0</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>45334.0</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="21" t="s">
         <v>26</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -1130,35 +1208,35 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="19">
+      <c r="A8" s="22">
         <v>5.0</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>45338.0</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="J8" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="K8" s="17"/>
       <c r="L8" s="5"/>
@@ -1178,35 +1256,35 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="20">
+      <c r="A9" s="22">
         <v>6.0</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>45338.0</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>33</v>
+      <c r="D9" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="H9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="I9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="J9" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="K9" s="17"/>
       <c r="L9" s="5"/>
@@ -1226,38 +1304,38 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="19">
+      <c r="A10" s="22">
         <v>7.0</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>45338.0</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="H10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="16" t="s">
+      <c r="J10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="K10" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>43</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -1279,34 +1357,34 @@
       <c r="A11" s="22">
         <v>8.0</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="11">
         <v>45354.0</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="25" t="s">
+      <c r="H11" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="I11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="J11" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="6"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -1327,34 +1405,34 @@
       <c r="A12" s="22">
         <v>9.0</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="11">
         <v>45354.0</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="26" t="s">
+      <c r="D12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="I12" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="J12" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="6"/>
+      <c r="K12" s="25"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -1375,34 +1453,34 @@
       <c r="A13" s="22">
         <v>10.0</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="11">
         <v>45353.0</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="I13" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="J13" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="29"/>
+      <c r="K13" s="25"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1423,34 +1501,34 @@
       <c r="A14" s="22">
         <v>11.0</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="11">
         <v>45356.0</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="26" t="s">
+      <c r="D14" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="I14" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="J14" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="29"/>
+      <c r="K14" s="25"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -1471,32 +1549,32 @@
       <c r="A15" s="22">
         <v>12.0</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="11">
         <v>45356.0</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="22" t="s">
+      <c r="D15" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="I15" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="6"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="25"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -1517,35 +1595,35 @@
       <c r="A16" s="22">
         <v>13.0</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="11">
         <v>45356.0</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="H16" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="I16" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="J16" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="K16" s="29" t="s">
         <v>68</v>
-      </c>
-      <c r="K16" s="25" t="s">
-        <v>69</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
@@ -1564,37 +1642,37 @@
       <c r="Z16" s="5"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="32">
+      <c r="A17" s="30">
         <v>14.0</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="31">
         <v>45356.0</v>
       </c>
-      <c r="C17" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="34" t="s">
+      <c r="C17" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="35" t="s">
+      <c r="E17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="I17" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="K17" s="36"/>
+      <c r="K17" s="17"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -1612,36 +1690,37 @@
       <c r="Z17" s="5"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="37">
+      <c r="A18" s="35">
         <v>15.0</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="31">
         <v>45377.0</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="37" t="s">
+      <c r="G18" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="H18" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="I18" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="J18" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J18" s="37" t="s">
-        <v>78</v>
-      </c>
+      <c r="K18" s="17"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -1659,36 +1738,37 @@
       <c r="Z18" s="5"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="37">
+      <c r="A19" s="35">
         <v>16.0</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="31">
         <v>45377.0</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="37" t="s">
+      <c r="G19" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="H19" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="I19" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>83</v>
-      </c>
+      <c r="K19" s="17"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -1706,36 +1786,37 @@
       <c r="Z19" s="5"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="38">
+      <c r="A20" s="30">
         <v>17.0</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="31">
         <v>45377.0</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="37" t="s">
+      <c r="H20" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="I20" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>87</v>
-      </c>
+      <c r="K20" s="17"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -1753,36 +1834,37 @@
       <c r="Z20" s="5"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="38">
+      <c r="A21" s="30">
         <v>18.0</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="31">
         <v>45377.0</v>
       </c>
-      <c r="C21" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="37" t="s">
+      <c r="C21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="37" t="s">
+      <c r="H21" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="I21" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="37" t="s">
+      <c r="J21" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="J21" s="37" t="s">
-        <v>92</v>
-      </c>
+      <c r="K21" s="17"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -1800,38 +1882,38 @@
       <c r="Z21" s="5"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="37">
+      <c r="A22" s="35">
         <v>19.0</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="31">
         <v>45377.0</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="37" t="s">
+      <c r="D22" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="37" t="s">
+      <c r="I22" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="37" t="s">
+      <c r="J22" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="J22" s="37" t="s">
+      <c r="K22" s="38" t="s">
         <v>96</v>
-      </c>
-      <c r="K22" s="37" t="s">
-        <v>97</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -1853,35 +1935,35 @@
       <c r="A23" s="22">
         <v>20.0</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="31">
         <v>45377.0</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="26" t="s">
+      <c r="C23" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="I23" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="J23" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="I23" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="J23" s="26" t="s">
+      <c r="K23" s="29" t="s">
         <v>100</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>101</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -1903,34 +1985,34 @@
       <c r="A24" s="22">
         <v>21.0</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="31">
         <v>45377.0</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="22" t="s">
+      <c r="C24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="I24" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="I24" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="K24" s="6"/>
+      <c r="K24" s="25"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -1951,34 +2033,34 @@
       <c r="A25" s="22">
         <v>22.0</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="11">
         <v>45378.0</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="22" t="s">
+      <c r="D25" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="I25" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="J25" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="J25" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="K25" s="6"/>
+      <c r="K25" s="25"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -1999,35 +2081,35 @@
       <c r="A26" s="22">
         <v>23.0</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="11">
         <v>45378.0</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="22" t="s">
+      <c r="C26" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="I26" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="J26" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="I26" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="J26" s="26" t="s">
+      <c r="K26" s="39" t="s">
         <v>111</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>112</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -2046,16 +2128,36 @@
       <c r="Z26" s="5"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="40"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="A27" s="40">
+        <v>24.0</v>
+      </c>
+      <c r="B27" s="41">
+        <v>45380.0</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="43" t="s">
+        <v>19</v>
+      </c>
       <c r="K27" s="6"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -2074,17 +2176,33 @@
       <c r="Z27" s="5"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="41"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="2"/>
+      <c r="A28" s="40">
+        <v>25.0</v>
+      </c>
+      <c r="B28" s="41">
+        <v>45384.0</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>22</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="44" t="s">
+        <v>23</v>
+      </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -2102,17 +2220,33 @@
       <c r="Z28" s="5"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="2"/>
+      <c r="A29" s="40">
+        <v>26.0</v>
+      </c>
+      <c r="B29" s="41">
+        <v>45385.0</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="6"/>
+      <c r="K29" s="45" t="s">
+        <v>23</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -2130,17 +2264,33 @@
       <c r="Z29" s="5"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="2"/>
+      <c r="A30" s="40">
+        <v>27.0</v>
+      </c>
+      <c r="B30" s="41">
+        <v>45388.0</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="43" t="s">
+        <v>25</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="6"/>
+      <c r="K30" s="45" t="s">
+        <v>26</v>
+      </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -2158,16 +2308,36 @@
       <c r="Z30" s="5"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="43"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="A31" s="40">
+        <v>28.0</v>
+      </c>
+      <c r="B31" s="41">
+        <v>45389.0</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="43" t="s">
+        <v>31</v>
+      </c>
       <c r="K31" s="6"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -2186,16 +2356,36 @@
       <c r="Z31" s="5"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="A32" s="40">
+        <v>29.0</v>
+      </c>
+      <c r="B32" s="41">
+        <v>45389.0</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="43" t="s">
+        <v>37</v>
+      </c>
       <c r="K32" s="6"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -2214,17 +2404,39 @@
       <c r="Z32" s="5"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="6"/>
+      <c r="A33" s="40">
+        <v>30.0</v>
+      </c>
+      <c r="B33" s="41">
+        <v>45380.0</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="46" t="s">
+        <v>42</v>
+      </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -2242,16 +2454,36 @@
       <c r="Z33" s="5"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="A34" s="40">
+        <v>31.0</v>
+      </c>
+      <c r="B34" s="41">
+        <v>45379.0</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="43" t="s">
+        <v>113</v>
+      </c>
       <c r="K34" s="6"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -2270,15 +2502,36 @@
       <c r="Z34" s="5"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="A35" s="40">
+        <v>32.0</v>
+      </c>
+      <c r="B35" s="41">
+        <v>45379.0</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="I35" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="J35" s="43" t="s">
+        <v>113</v>
+      </c>
       <c r="K35" s="6"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
@@ -2297,16 +2550,36 @@
       <c r="Z35" s="5"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+      <c r="A36" s="40">
+        <v>33.0</v>
+      </c>
+      <c r="B36" s="41">
+        <v>45387.0</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="I36" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="J36" s="43" t="s">
+        <v>120</v>
+      </c>
       <c r="K36" s="6"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
@@ -2325,16 +2598,36 @@
       <c r="Z36" s="5"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="A37" s="40">
+        <v>34.0</v>
+      </c>
+      <c r="B37" s="41">
+        <v>45379.0</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="J37" s="43" t="s">
+        <v>124</v>
+      </c>
       <c r="K37" s="6"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -2353,16 +2646,36 @@
       <c r="Z37" s="5"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
+      <c r="A38" s="40">
+        <v>35.0</v>
+      </c>
+      <c r="B38" s="41">
+        <v>45387.0</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="H38" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="I38" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="J38" s="43" t="s">
+        <v>129</v>
+      </c>
       <c r="K38" s="6"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
@@ -2381,17 +2694,36 @@
       <c r="Z38" s="5"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="6"/>
+      <c r="A39" s="47">
+        <v>36.0</v>
+      </c>
+      <c r="B39" s="48">
+        <v>45390.0</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="H39" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="I39" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="J39" s="47" t="s">
+        <v>135</v>
+      </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
@@ -2409,17 +2741,36 @@
       <c r="Z39" s="5"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="6"/>
+      <c r="A40" s="47">
+        <v>37.0</v>
+      </c>
+      <c r="B40" s="48">
+        <v>45390.0</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="H40" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="I40" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="J40" s="47" t="s">
+        <v>138</v>
+      </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -2437,17 +2788,6 @@
       <c r="Z40" s="5"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="6"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -2465,17 +2805,6 @@
       <c r="Z41" s="5"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="6"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -2493,17 +2822,6 @@
       <c r="Z42" s="5"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="6"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -2521,17 +2839,6 @@
       <c r="Z43" s="5"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="6"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
@@ -2549,17 +2856,6 @@
       <c r="Z44" s="5"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="6"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -2577,17 +2873,6 @@
       <c r="Z45" s="5"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="6"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -2605,17 +2890,6 @@
       <c r="Z46" s="5"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="6"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
@@ -2633,17 +2907,6 @@
       <c r="Z47" s="5"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="6"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
@@ -2661,17 +2924,6 @@
       <c r="Z48" s="5"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="6"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
@@ -2689,17 +2941,6 @@
       <c r="Z49" s="5"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="6"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
@@ -29316,6 +29557,34 @@
       <c r="Y1000" s="5"/>
       <c r="Z1000" s="5"/>
     </row>
+    <row r="1001" ht="14.25" customHeight="1">
+      <c r="A1001" s="5"/>
+      <c r="B1001" s="5"/>
+      <c r="C1001" s="5"/>
+      <c r="D1001" s="5"/>
+      <c r="E1001" s="5"/>
+      <c r="F1001" s="5"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="6"/>
+      <c r="L1001" s="5"/>
+      <c r="M1001" s="5"/>
+      <c r="N1001" s="5"/>
+      <c r="O1001" s="5"/>
+      <c r="P1001" s="5"/>
+      <c r="Q1001" s="5"/>
+      <c r="R1001" s="5"/>
+      <c r="S1001" s="5"/>
+      <c r="T1001" s="5"/>
+      <c r="U1001" s="5"/>
+      <c r="V1001" s="5"/>
+      <c r="W1001" s="5"/>
+      <c r="X1001" s="5"/>
+      <c r="Y1001" s="5"/>
+      <c r="Z1001" s="5"/>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -29338,59 +29607,59 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>114</v>
+      <c r="A1" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>115</v>
+      <c r="B2" s="50" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>116</v>
+      <c r="B3" s="50" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>117</v>
+      <c r="A4" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>118</v>
+      <c r="A5" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>120</v>
+      <c r="A6" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>122</v>
+      <c r="A7" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1"/>
